--- a/excel/class_notes/what-if/Scenario Manager.xlsx
+++ b/excel/class_notes/what-if/Scenario Manager.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DATA ANALYSIS TOOL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Summary" sheetId="5" r:id="rId1"/>
@@ -39,13 +34,71 @@
     <definedName name="venue">ScenarioAllEx!$B$39</definedName>
     <definedName name="Venue_rental">ScenarioAllEx!$B$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Created by Innozant</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>$B$1</t>
+  </si>
+  <si>
+    <t>$B$2</t>
+  </si>
+  <si>
+    <t>$B$3</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>$B$4</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
+  </si>
+  <si>
+    <t>Ex.1</t>
+  </si>
+  <si>
     <t>JAN</t>
   </si>
   <si>
@@ -55,54 +108,24 @@
     <t>Mar</t>
   </si>
   <si>
-    <t>$B$1</t>
-  </si>
-  <si>
-    <t>$B$2</t>
-  </si>
-  <si>
-    <t>$B$3</t>
-  </si>
-  <si>
-    <t>$B$4</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Created by Innozant</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Scenario Summary</t>
-  </si>
-  <si>
-    <t>Changing Cells:</t>
-  </si>
-  <si>
-    <t>Current Values:</t>
-  </si>
-  <si>
-    <t>Result Cells:</t>
-  </si>
-  <si>
-    <t>Notes:  Current Values column represents values of changing cells at</t>
-  </si>
-  <si>
-    <t>time Scenario Summary Report was created.  Changing cells for each</t>
-  </si>
-  <si>
-    <t>scenario are highlighted in gray.</t>
-  </si>
-  <si>
-    <t>Ex.1</t>
-  </si>
-  <si>
     <t>Ex.2</t>
   </si>
   <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Dis.Amt</t>
+  </si>
+  <si>
+    <t>Net.Amt</t>
+  </si>
+  <si>
     <t>Jeans</t>
   </si>
   <si>
@@ -121,24 +144,9 @@
     <t>Coat</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Dis.Amt</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Net.Amt</t>
-  </si>
-  <si>
     <t>Ex.3</t>
   </si>
   <si>
@@ -232,6 +240,21 @@
     <t>Ex.5</t>
   </si>
   <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -251,21 +274,6 @@
   </si>
   <si>
     <t>Expense 6</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Budget</t>
   </si>
   <si>
     <t>Total Expenses</t>
@@ -298,13 +306,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,7 +326,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,7 +334,14 @@
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,7 +349,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,25 +364,162 @@
       <sz val="11"/>
       <color indexed="18"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +529,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,18 +564,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -408,27 +759,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,7 +776,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -445,8 +785,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,81 +805,367 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -577,7 +1214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,7 +1249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,12 +1452,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -830,454 +1466,456 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="6" width="13.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="5.13636363636364" customWidth="1"/>
+    <col min="4" max="6" width="13.1363636363636" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="1" ht="15.25"/>
+    <row r="2" ht="15.5" spans="2:6">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" ht="15.5" collapsed="1" spans="2:6">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" hidden="1" outlineLevel="1" spans="2:6">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" outlineLevel="1" spans="2:6">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="22">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="26">
+        <v>8000</v>
+      </c>
+      <c r="F6" s="26">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" outlineLevel="1" spans="2:6">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="22">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="26">
+        <v>13000</v>
+      </c>
+      <c r="F7" s="26">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="8" outlineLevel="1" spans="2:6">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="22">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="26">
+        <v>18000</v>
+      </c>
+      <c r="F8" s="26">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" ht="15.25" outlineLevel="1" spans="2:6">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="13" t="s">
+      <c r="D10" s="28">
+        <v>45000</v>
+      </c>
+      <c r="E10" s="28">
+        <v>39000</v>
+      </c>
+      <c r="F10" s="28">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="22.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="14">
-        <v>8000</v>
-      </c>
-      <c r="F6" s="14">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>15000</v>
-      </c>
-      <c r="E7" s="14">
-        <v>13000</v>
-      </c>
-      <c r="F7" s="14">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="14">
-        <v>18000</v>
-      </c>
-      <c r="F8" s="14">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5">
-        <v>45000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>39000</v>
-      </c>
-      <c r="F10" s="5">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4"/>
       <c r="B6" s="3">
         <f>SUM(B3:B5)</f>
         <v>45000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4">
         <v>2200</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>10</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <f>B10*C10/100</f>
         <v>220</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <f>B10-D10</f>
         <v>1980</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4">
         <v>1200</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>12</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <f t="shared" ref="D11:D15" si="0">B11*C11/100</f>
         <v>144</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <f t="shared" ref="E11:E15" si="1">B11-D11</f>
         <v>1056</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4">
         <v>1000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>14</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <f t="shared" si="1"/>
         <v>860</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
         <v>1800</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>15</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <f t="shared" si="1"/>
         <v>1530</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4">
         <v>5500</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>17</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>935</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <f t="shared" si="1"/>
         <v>4565</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4">
         <v>7250</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>8</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <f t="shared" si="1"/>
         <v>6670</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5">
       <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="18">
+        <v>30</v>
+      </c>
+      <c r="E16" s="6">
         <f>SUM(E10:E15)</f>
         <v>16661</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>55000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="21" spans="3:3">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>5000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>8000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <f>SUM(B22:B29)</f>
         <v>41000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="4">
         <f>B20-B31</f>
         <v>14000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="25"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="26"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1285,7 +1923,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1293,7 +1931,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1301,7 +1939,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1309,7 +1947,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1317,7 +1955,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1325,7 +1963,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1333,22 +1971,22 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="10">
         <f>SUM(B41:B46)</f>
         <v>14550</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="20"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1356,7 +1994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1365,7 +2003,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1374,7 +2012,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1383,297 +2021,265 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="10">
         <f>SUM(B53:B55)</f>
         <v>64000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="10">
         <f>B56-B47</f>
         <v>49450</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="26"/>
-    </row>
-    <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:8">
+      <c r="A62" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="4">
         <v>1000</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="4">
         <v>1250</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="4">
         <v>1370</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="4">
         <v>1250</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="4">
         <v>2000</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="4">
         <v>2215</v>
       </c>
-      <c r="H64" s="24">
+      <c r="H64" s="13">
         <f>SUM(B64:G64)</f>
         <v>9085</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="24"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="24"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="24"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="24"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="24"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="24"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="4">
         <f>B64</f>
         <v>1000</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="4">
         <f t="shared" ref="C72:H72" si="2">C64</f>
         <v>1250</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="4">
         <f t="shared" si="2"/>
         <v>1370</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="4">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="4">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="4">
         <f t="shared" si="2"/>
         <v>2215</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="4">
         <f t="shared" si="2"/>
         <v>9085</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+    <row r="74" ht="30" customHeight="1" spans="1:2">
+      <c r="A74" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="28"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="22">
+      <c r="B75" s="15">
         <v>0.05</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="23">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="B76" s="16">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="23">
+      <c r="B77" s="16">
         <v>0.155</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="23">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="B78" s="16">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="23">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="B79" s="16">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="22">
+      <c r="B80" s="15">
         <v>0.12</v>
       </c>
     </row>
   </sheetData>
-  <scenarios current="2" show="1">
-    <scenario name="Original Values" locked="1" count="8" user="Windows User" comment="Created by Windows User on 29-11-2017">
-      <inputCells r="B39" val="500"/>
-      <inputCells r="B41" val="5000"/>
-      <inputCells r="B42" val="3000"/>
-      <inputCells r="B43" val="1000"/>
-      <inputCells r="B44" val="200"/>
-      <inputCells r="B45" val="150"/>
-      <inputCells r="B46" val="200"/>
-      <inputCells r="B51" val="50"/>
-    </scenario>
-    <scenario name="Medium Venue" locked="1" count="8" user="Windows User" comment="Created by Windows User on 29-11-2017_x000a_Modified by Windows User on 29-11-2017">
-      <inputCells r="B39" val="800"/>
-      <inputCells r="B41" val="7000"/>
-      <inputCells r="B42" val="5000"/>
-      <inputCells r="B43" val="2000"/>
-      <inputCells r="B44" val="200"/>
-      <inputCells r="B45" val="150"/>
-      <inputCells r="B46" val="200"/>
-      <inputCells r="B51" val="60"/>
-    </scenario>
-    <scenario name="Large Venue" locked="1" count="8" user="Windows User" comment="Created by Windows User on 29-11-2017_x000a_Modified by Windows User on 29-11-2017">
-      <inputCells r="B39" val="1500"/>
-      <inputCells r="B41" val="12000"/>
-      <inputCells r="B42" val="8000"/>
-      <inputCells r="B43" val="10004000"/>
-      <inputCells r="B44" val="500"/>
-      <inputCells r="B45" val="150"/>
-      <inputCells r="B46" val="200"/>
-      <inputCells r="B51" val="75"/>
-    </scenario>
-  </scenarios>
   <mergeCells count="5">
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A38:B38"/>
@@ -1682,5 +2288,6 @@
     <mergeCell ref="A74:B74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>